--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -83664,12 +83664,12 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>225.66000000</t>
+          <t>225.98000000</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>311257.23037000</t>
+          <t>314971.04340000</t>
         </is>
       </c>
       <c r="G907" t="n">
@@ -83677,20 +83677,20 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>68648572.86674370</t>
+          <t>69486666.10936940</t>
         </is>
       </c>
       <c r="I907" t="n">
-        <v>132705</v>
+        <v>134337</v>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>159532.36609000</t>
+          <t>161823.58145000</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>35197327.13294390</t>
+          <t>35714437.64044080</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -83699,40 +83699,40 @@
         </is>
       </c>
       <c r="M907" t="n">
-        <v>225.6599999999993</v>
+        <v>225.9799999999994</v>
       </c>
       <c r="N907" t="n">
-        <v>224.4950000000001</v>
+        <v>224.6550000000002</v>
       </c>
       <c r="O907" t="n">
-        <v>204.7142857142846</v>
+        <v>204.7599999999988</v>
       </c>
       <c r="P907" t="n">
-        <v>188.5953333333337</v>
+        <v>188.616666666667</v>
       </c>
       <c r="Q907" t="n">
-        <v>174.7693333333335</v>
+        <v>174.7800000000002</v>
       </c>
       <c r="R907" t="n">
-        <v>225.66</v>
+        <v>225.98</v>
       </c>
       <c r="S907" t="n">
-        <v>223.2233504239452</v>
+        <v>223.4366837572785</v>
       </c>
       <c r="T907" t="n">
-        <v>198.2434158573426</v>
+        <v>198.2926466265734</v>
       </c>
       <c r="U907" t="n">
-        <v>182.0822359683006</v>
+        <v>182.1059396720043</v>
       </c>
       <c r="V907" t="n">
-        <v>16.16117988904207</v>
+        <v>16.1867069545691</v>
       </c>
       <c r="W907" t="n">
-        <v>11.96901451733925</v>
+        <v>11.97411993044466</v>
       </c>
       <c r="X907" t="n">
-        <v>4.192165371702824</v>
+        <v>4.212587024124447</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -83654,7 +83654,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>226.56000000</t>
+          <t>227.61000000</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -83664,12 +83664,12 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>225.98000000</t>
+          <t>226.30000000</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>314971.04340000</t>
+          <t>359440.97052000</t>
         </is>
       </c>
       <c r="G907" t="n">
@@ -83677,20 +83677,20 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>69486666.10936940</t>
+          <t>79543484.38694170</t>
         </is>
       </c>
       <c r="I907" t="n">
-        <v>134337</v>
+        <v>154783</v>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>161823.58145000</t>
+          <t>185253.82840000</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>35714437.64044080</t>
+          <t>41013852.01520870</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -83699,40 +83699,40 @@
         </is>
       </c>
       <c r="M907" t="n">
-        <v>225.9799999999994</v>
+        <v>226.2999999999994</v>
       </c>
       <c r="N907" t="n">
-        <v>224.6550000000002</v>
+        <v>224.8150000000002</v>
       </c>
       <c r="O907" t="n">
-        <v>204.7599999999988</v>
+        <v>204.8057142857131</v>
       </c>
       <c r="P907" t="n">
-        <v>188.616666666667</v>
+        <v>188.6380000000004</v>
       </c>
       <c r="Q907" t="n">
-        <v>174.7800000000002</v>
+        <v>174.7906666666669</v>
       </c>
       <c r="R907" t="n">
-        <v>225.98</v>
+        <v>226.3</v>
       </c>
       <c r="S907" t="n">
-        <v>223.4366837572785</v>
+        <v>223.6500170906119</v>
       </c>
       <c r="T907" t="n">
-        <v>198.2926466265734</v>
+        <v>198.3418773958041</v>
       </c>
       <c r="U907" t="n">
-        <v>182.1059396720043</v>
+        <v>182.129643375708</v>
       </c>
       <c r="V907" t="n">
-        <v>16.1867069545691</v>
+        <v>16.21223402009616</v>
       </c>
       <c r="W907" t="n">
-        <v>11.97411993044466</v>
+        <v>11.97922534355007</v>
       </c>
       <c r="X907" t="n">
-        <v>4.212587024124447</v>
+        <v>4.233008676546094</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X907"/>
+  <dimension ref="A1:X908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83654,7 +83654,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>227.61000000</t>
+          <t>227.75000000</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -83664,12 +83664,12 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>226.30000000</t>
+          <t>223.05000000</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>359440.97052000</t>
+          <t>548551.87465000</t>
         </is>
       </c>
       <c r="G907" t="n">
@@ -83677,20 +83677,20 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>79543484.38694170</t>
+          <t>122069507.65511160</t>
         </is>
       </c>
       <c r="I907" t="n">
-        <v>154783</v>
+        <v>257281</v>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>185253.82840000</t>
+          <t>277426.26209000</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>41013852.01520870</t>
+          <t>61749990.22004080</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -83699,40 +83699,132 @@
         </is>
       </c>
       <c r="M907" t="n">
-        <v>226.2999999999994</v>
+        <v>223.0499999999994</v>
       </c>
       <c r="N907" t="n">
-        <v>224.8150000000002</v>
+        <v>223.1900000000002</v>
       </c>
       <c r="O907" t="n">
-        <v>204.8057142857131</v>
+        <v>204.3414285714274</v>
       </c>
       <c r="P907" t="n">
-        <v>188.6380000000004</v>
+        <v>188.4213333333337</v>
       </c>
       <c r="Q907" t="n">
-        <v>174.7906666666669</v>
+        <v>174.6823333333336</v>
       </c>
       <c r="R907" t="n">
-        <v>226.3</v>
+        <v>223.05</v>
       </c>
       <c r="S907" t="n">
-        <v>223.6500170906119</v>
+        <v>221.4833504239452</v>
       </c>
       <c r="T907" t="n">
-        <v>198.3418773958041</v>
+        <v>197.8418773958041</v>
       </c>
       <c r="U907" t="n">
-        <v>182.129643375708</v>
+        <v>181.8889026349672</v>
       </c>
       <c r="V907" t="n">
-        <v>16.21223402009616</v>
+        <v>15.95297476083692</v>
       </c>
       <c r="W907" t="n">
-        <v>11.97922534355007</v>
+        <v>11.92737349169822</v>
       </c>
       <c r="X907" t="n">
-        <v>4.233008676546094</v>
+        <v>4.025601269138702</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>223.01000000</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>230.65000000</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>222.86000000</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>226.01000000</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>236841.33489000</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>1581292799999</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>53961682.74622080</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>121551</v>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>118600.00134000</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>27024399.68038880</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>2020-02-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M908" t="n">
+        <v>226.0099999999994</v>
+      </c>
+      <c r="N908" t="n">
+        <v>224.5300000000001</v>
+      </c>
+      <c r="O908" t="n">
+        <v>209.7085714285702</v>
+      </c>
+      <c r="P908" t="n">
+        <v>192.798666666667</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>177.3880000000002</v>
+      </c>
+      <c r="R908" t="n">
+        <v>226.01</v>
+      </c>
+      <c r="S908" t="n">
+        <v>224.5011168079817</v>
+      </c>
+      <c r="T908" t="n">
+        <v>202.1754347195266</v>
+      </c>
+      <c r="U908" t="n">
+        <v>185.1571320694141</v>
+      </c>
+      <c r="V908" t="n">
+        <v>17.0183026501125</v>
+      </c>
+      <c r="W908" t="n">
+        <v>12.94555932338108</v>
+      </c>
+      <c r="X908" t="n">
+        <v>4.072743326731421</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X908"/>
+  <dimension ref="A1:X911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83756,12 +83756,12 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>226.01000000</t>
+          <t>228.49000000</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>236841.33489000</t>
+          <t>350336.24399000</t>
         </is>
       </c>
       <c r="G908" t="n">
@@ -83769,20 +83769,20 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>53961682.74622080</t>
+          <t>79674647.00019990</t>
         </is>
       </c>
       <c r="I908" t="n">
-        <v>121551</v>
+        <v>183735</v>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>118600.00134000</t>
+          <t>172523.02255000</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>27024399.68038880</t>
+          <t>39249445.39954730</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
@@ -83791,40 +83791,316 @@
         </is>
       </c>
       <c r="M908" t="n">
-        <v>226.0099999999994</v>
+        <v>228.4899999999994</v>
       </c>
       <c r="N908" t="n">
-        <v>224.5300000000001</v>
+        <v>225.7700000000002</v>
       </c>
       <c r="O908" t="n">
-        <v>209.7085714285702</v>
+        <v>210.062857142856</v>
       </c>
       <c r="P908" t="n">
-        <v>192.798666666667</v>
+        <v>192.9640000000004</v>
       </c>
       <c r="Q908" t="n">
-        <v>177.3880000000002</v>
+        <v>177.4706666666669</v>
       </c>
       <c r="R908" t="n">
-        <v>226.01</v>
+        <v>228.49</v>
       </c>
       <c r="S908" t="n">
-        <v>224.5011168079817</v>
+        <v>226.1544501413151</v>
       </c>
       <c r="T908" t="n">
-        <v>202.1754347195266</v>
+        <v>202.556973181065</v>
       </c>
       <c r="U908" t="n">
-        <v>185.1571320694141</v>
+        <v>185.3408357731178</v>
       </c>
       <c r="V908" t="n">
-        <v>17.0183026501125</v>
+        <v>17.21613740794723</v>
       </c>
       <c r="W908" t="n">
-        <v>12.94555932338108</v>
+        <v>12.98512627494803</v>
       </c>
       <c r="X908" t="n">
-        <v>4.072743326731421</v>
+        <v>4.231011132999203</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>228.53000000</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>229.40000000</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>216.37000000</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>222.89000000</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>510415.49949000</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>1581379199999</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>113385288.95030170</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>232617</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>255575.45007000</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>56800747.20515700</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>2020-02-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M909" t="n">
+        <v>222.8899999999994</v>
+      </c>
+      <c r="N909" t="n">
+        <v>225.6900000000001</v>
+      </c>
+      <c r="O909" t="n">
+        <v>214.8057142857131</v>
+      </c>
+      <c r="P909" t="n">
+        <v>196.632666666667</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>180.1543333333335</v>
+      </c>
+      <c r="R909" t="n">
+        <v>222.89</v>
+      </c>
+      <c r="S909" t="n">
+        <v>223.978150047105</v>
+      </c>
+      <c r="T909" t="n">
+        <v>205.6851311532089</v>
+      </c>
+      <c r="U909" t="n">
+        <v>188.1222553454795</v>
+      </c>
+      <c r="V909" t="n">
+        <v>17.56287580772945</v>
+      </c>
+      <c r="W909" t="n">
+        <v>13.90067618150431</v>
+      </c>
+      <c r="X909" t="n">
+        <v>3.66219962622514</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>222.89000000</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>239.15000000</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>218.17000000</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>236.69000000</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>595576.90276000</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>1581465599999</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>135863928.62430580</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>250241</v>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>309901.30870000</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>70710866.22847840</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>2020-02-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M910" t="n">
+        <v>236.6899999999994</v>
+      </c>
+      <c r="N910" t="n">
+        <v>229.7900000000001</v>
+      </c>
+      <c r="O910" t="n">
+        <v>221.6314285714274</v>
+      </c>
+      <c r="P910" t="n">
+        <v>201.0733333333337</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>183.1593333333335</v>
+      </c>
+      <c r="R910" t="n">
+        <v>236.69</v>
+      </c>
+      <c r="S910" t="n">
+        <v>232.4527166823683</v>
+      </c>
+      <c r="T910" t="n">
+        <v>210.4551109757922</v>
+      </c>
+      <c r="U910" t="n">
+        <v>191.7198660606292</v>
+      </c>
+      <c r="V910" t="n">
+        <v>18.73524491516301</v>
+      </c>
+      <c r="W910" t="n">
+        <v>14.86758992823605</v>
+      </c>
+      <c r="X910" t="n">
+        <v>3.867654986926954</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>236.69000000</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>250.24000000</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>236.69000000</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>249.46000000</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>220772.84047000</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>1581551999999</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>54001501.46767680</t>
+        </is>
+      </c>
+      <c r="I911" t="n">
+        <v>94170</v>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>119010.85818000</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>29100957.90356870</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>2020-02-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M911" t="n">
+        <v>249.4599999999994</v>
+      </c>
+      <c r="N911" t="n">
+        <v>243.0750000000002</v>
+      </c>
+      <c r="O911" t="n">
+        <v>228.1571428571417</v>
+      </c>
+      <c r="P911" t="n">
+        <v>205.9946666666671</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>186.6886666666669</v>
+      </c>
+      <c r="R911" t="n">
+        <v>249.46</v>
+      </c>
+      <c r="S911" t="n">
+        <v>243.7909055607895</v>
+      </c>
+      <c r="T911" t="n">
+        <v>216.4558631333626</v>
+      </c>
+      <c r="U911" t="n">
+        <v>195.9969130191011</v>
+      </c>
+      <c r="V911" t="n">
+        <v>20.45895011426154</v>
+      </c>
+      <c r="W911" t="n">
+        <v>15.98586196544115</v>
+      </c>
+      <c r="X911" t="n">
+        <v>4.473088148820386</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X911"/>
+  <dimension ref="A1:X915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84022,7 +84022,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>250.24000000</t>
+          <t>275.34000000</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -84032,12 +84032,12 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>249.46000000</t>
+          <t>265.74000000</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>220772.84047000</t>
+          <t>1038073.74782000</t>
         </is>
       </c>
       <c r="G911" t="n">
@@ -84045,20 +84045,20 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>54001501.46767680</t>
+          <t>266734296.55029730</t>
         </is>
       </c>
       <c r="I911" t="n">
-        <v>94170</v>
+        <v>415316</v>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>119010.85818000</t>
+          <t>521382.12082000</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>29100957.90356870</t>
+          <t>133916108.01620910</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
@@ -84067,40 +84067,408 @@
         </is>
       </c>
       <c r="M911" t="n">
-        <v>249.4599999999994</v>
+        <v>265.7399999999994</v>
       </c>
       <c r="N911" t="n">
-        <v>243.0750000000002</v>
+        <v>251.2150000000001</v>
       </c>
       <c r="O911" t="n">
-        <v>228.1571428571417</v>
+        <v>230.4828571428559</v>
       </c>
       <c r="P911" t="n">
-        <v>205.9946666666671</v>
+        <v>207.0800000000004</v>
       </c>
       <c r="Q911" t="n">
-        <v>186.6886666666669</v>
+        <v>187.2313333333335</v>
       </c>
       <c r="R911" t="n">
-        <v>249.46</v>
+        <v>265.74</v>
       </c>
       <c r="S911" t="n">
-        <v>243.7909055607895</v>
+        <v>254.6442388941228</v>
       </c>
       <c r="T911" t="n">
-        <v>216.4558631333626</v>
+        <v>218.960478517978</v>
       </c>
       <c r="U911" t="n">
-        <v>195.9969130191011</v>
+        <v>197.202838945027</v>
       </c>
       <c r="V911" t="n">
-        <v>20.45895011426154</v>
+        <v>21.75763957295101</v>
       </c>
       <c r="W911" t="n">
-        <v>15.98586196544115</v>
+        <v>16.24559985717905</v>
       </c>
       <c r="X911" t="n">
-        <v>4.473088148820386</v>
+        <v>5.512039715771959</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>265.74000000</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>277.69000000</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>256.08000000</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>268.32000000</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>1089679.15370000</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>1581638399999</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>291533156.09169540</t>
+        </is>
+      </c>
+      <c r="I912" t="n">
+        <v>422008</v>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>539389.59743000</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>144330540.73887080</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>2020-02-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M912" t="n">
+        <v>268.3199999999994</v>
+      </c>
+      <c r="N912" t="n">
+        <v>267.0300000000001</v>
+      </c>
+      <c r="O912" t="n">
+        <v>238.3585714285702</v>
+      </c>
+      <c r="P912" t="n">
+        <v>213.3866666666671</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>190.6540000000002</v>
+      </c>
+      <c r="R912" t="n">
+        <v>268.32</v>
+      </c>
+      <c r="S912" t="n">
+        <v>263.7614129647076</v>
+      </c>
+      <c r="T912" t="n">
+        <v>226.5542510536737</v>
+      </c>
+      <c r="U912" t="n">
+        <v>202.4707768009509</v>
+      </c>
+      <c r="V912" t="n">
+        <v>24.08347425272279</v>
+      </c>
+      <c r="W912" t="n">
+        <v>17.8131747362878</v>
+      </c>
+      <c r="X912" t="n">
+        <v>6.270299516434996</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>268.34000000</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>287.15000000</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>260.28000000</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>285.15000000</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>734944.32266000</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>1581724799999</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>201120424.58322010</t>
+        </is>
+      </c>
+      <c r="I913" t="n">
+        <v>309022</v>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>380703.78554000</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>104184138.43923920</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>2020-02-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M913" t="n">
+        <v>285.1499999999994</v>
+      </c>
+      <c r="N913" t="n">
+        <v>276.7350000000001</v>
+      </c>
+      <c r="O913" t="n">
+        <v>247.1899999999988</v>
+      </c>
+      <c r="P913" t="n">
+        <v>220.0840000000004</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>194.6123333333335</v>
+      </c>
+      <c r="R913" t="n">
+        <v>285.15</v>
+      </c>
+      <c r="S913" t="n">
+        <v>278.0204709882358</v>
+      </c>
+      <c r="T913" t="n">
+        <v>235.5689816608008</v>
+      </c>
+      <c r="U913" t="n">
+        <v>208.5951637045842</v>
+      </c>
+      <c r="V913" t="n">
+        <v>26.97381795621664</v>
+      </c>
+      <c r="W913" t="n">
+        <v>19.64530338027357</v>
+      </c>
+      <c r="X913" t="n">
+        <v>7.328514575943068</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>285.11000000</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>288.41000000</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>261.86000000</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>264.88000000</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>860813.14274000</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>1581811199999</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>236287101.09867710</t>
+        </is>
+      </c>
+      <c r="I914" t="n">
+        <v>348934</v>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>419793.21130000</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>115254803.51058330</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>2020-02-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M914" t="n">
+        <v>264.8799999999993</v>
+      </c>
+      <c r="N914" t="n">
+        <v>275.0150000000001</v>
+      </c>
+      <c r="O914" t="n">
+        <v>253.1657142857131</v>
+      </c>
+      <c r="P914" t="n">
+        <v>225.7433333333337</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>197.9680000000002</v>
+      </c>
+      <c r="R914" t="n">
+        <v>264.88</v>
+      </c>
+      <c r="S914" t="n">
+        <v>269.2601569960786</v>
+      </c>
+      <c r="T914" t="n">
+        <v>240.0783690976007</v>
+      </c>
+      <c r="U914" t="n">
+        <v>212.764410837578</v>
+      </c>
+      <c r="V914" t="n">
+        <v>27.3139582600227</v>
+      </c>
+      <c r="W914" t="n">
+        <v>21.1790343562234</v>
+      </c>
+      <c r="X914" t="n">
+        <v>6.134923903799304</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>264.91000000</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>274.00000000</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>257.24000000</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>265.15000000</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>388076.18690000</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>1581897599999</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>103871338.31446160</t>
+        </is>
+      </c>
+      <c r="I915" t="n">
+        <v>180036</v>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>187344.05821000</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>50160071.45703570</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>2020-02-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M915" t="n">
+        <v>265.1499999999993</v>
+      </c>
+      <c r="N915" t="n">
+        <v>265.0150000000001</v>
+      </c>
+      <c r="O915" t="n">
+        <v>258.402857142856</v>
+      </c>
+      <c r="P915" t="n">
+        <v>231.1800000000004</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>201.1446666666668</v>
+      </c>
+      <c r="R915" t="n">
+        <v>265.15</v>
+      </c>
+      <c r="S915" t="n">
+        <v>266.5200523320262</v>
+      </c>
+      <c r="T915" t="n">
+        <v>243.9355430825852</v>
+      </c>
+      <c r="U915" t="n">
+        <v>216.6448248496092</v>
+      </c>
+      <c r="V915" t="n">
+        <v>27.29071823297596</v>
+      </c>
+      <c r="W915" t="n">
+        <v>22.40137113157391</v>
+      </c>
+      <c r="X915" t="n">
+        <v>4.889347101402048</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X915"/>
+  <dimension ref="A1:X918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84395,17 +84395,17 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>257.24000000</t>
+          <t>237.41000000</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>265.15000000</t>
+          <t>258.85000000</t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>388076.18690000</t>
+          <t>1110118.46395000</t>
         </is>
       </c>
       <c r="G915" t="n">
@@ -84413,20 +84413,20 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>103871338.31446160</t>
+          <t>286269166.28143690</t>
         </is>
       </c>
       <c r="I915" t="n">
-        <v>180036</v>
+        <v>416082</v>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>187344.05821000</t>
+          <t>526993.06165000</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>50160071.45703570</t>
+          <t>135974874.77418050</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
@@ -84435,40 +84435,316 @@
         </is>
       </c>
       <c r="M915" t="n">
-        <v>265.1499999999993</v>
+        <v>258.8499999999993</v>
       </c>
       <c r="N915" t="n">
-        <v>265.0150000000001</v>
+        <v>261.8650000000001</v>
       </c>
       <c r="O915" t="n">
-        <v>258.402857142856</v>
+        <v>257.502857142856</v>
       </c>
       <c r="P915" t="n">
-        <v>231.1800000000004</v>
+        <v>230.7600000000004</v>
       </c>
       <c r="Q915" t="n">
-        <v>201.1446666666668</v>
+        <v>200.9346666666669</v>
       </c>
       <c r="R915" t="n">
-        <v>265.15</v>
+        <v>258.85</v>
       </c>
       <c r="S915" t="n">
-        <v>266.5200523320262</v>
+        <v>262.3200523320263</v>
       </c>
       <c r="T915" t="n">
-        <v>243.9355430825852</v>
+        <v>242.9663123133545</v>
       </c>
       <c r="U915" t="n">
-        <v>216.6448248496092</v>
+        <v>216.1781581829426</v>
       </c>
       <c r="V915" t="n">
-        <v>27.29071823297596</v>
+        <v>26.7881541304119</v>
       </c>
       <c r="W915" t="n">
-        <v>22.40137113157391</v>
+        <v>22.3008583110611</v>
       </c>
       <c r="X915" t="n">
-        <v>4.889347101402048</v>
+        <v>4.487295819350798</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>258.89000000</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>268.77000000</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>242.00000000</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>267.85000000</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>1110371.39094000</t>
+        </is>
+      </c>
+      <c r="G916" t="n">
+        <v>1581983999999</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>280371301.75499170</t>
+        </is>
+      </c>
+      <c r="I916" t="n">
+        <v>417529</v>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>542125.21208000</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>136867563.53063770</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>2020-02-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M916" t="n">
+        <v>267.8499999999993</v>
+      </c>
+      <c r="N916" t="n">
+        <v>263.3500000000001</v>
+      </c>
+      <c r="O916" t="n">
+        <v>263.9257142857132</v>
+      </c>
+      <c r="P916" t="n">
+        <v>236.0540000000004</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>204.0583333333335</v>
+      </c>
+      <c r="R916" t="n">
+        <v>267.85</v>
+      </c>
+      <c r="S916" t="n">
+        <v>266.0066841106755</v>
+      </c>
+      <c r="T916" t="n">
+        <v>246.7945719574538</v>
+      </c>
+      <c r="U916" t="n">
+        <v>220.0057020212431</v>
+      </c>
+      <c r="V916" t="n">
+        <v>26.78886993621072</v>
+      </c>
+      <c r="W916" t="n">
+        <v>23.19846063609102</v>
+      </c>
+      <c r="X916" t="n">
+        <v>3.590409300119692</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>267.90000000</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>285.88000000</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>258.00000000</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>282.61000000</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>1115523.43992000</t>
+        </is>
+      </c>
+      <c r="G917" t="n">
+        <v>1582070399999</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>304162263.30613900</t>
+        </is>
+      </c>
+      <c r="I917" t="n">
+        <v>431799</v>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>550241.02070000</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>150109585.65248150</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>2020-02-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M917" t="n">
+        <v>282.6099999999993</v>
+      </c>
+      <c r="N917" t="n">
+        <v>275.2300000000001</v>
+      </c>
+      <c r="O917" t="n">
+        <v>270.4857142857132</v>
+      </c>
+      <c r="P917" t="n">
+        <v>242.248666666667</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>207.9190000000002</v>
+      </c>
+      <c r="R917" t="n">
+        <v>282.61</v>
+      </c>
+      <c r="S917" t="n">
+        <v>277.0755613702252</v>
+      </c>
+      <c r="T917" t="n">
+        <v>252.3046378101532</v>
+      </c>
+      <c r="U917" t="n">
+        <v>224.6430574270769</v>
+      </c>
+      <c r="V917" t="n">
+        <v>27.66158038307626</v>
+      </c>
+      <c r="W917" t="n">
+        <v>24.09108458548807</v>
+      </c>
+      <c r="X917" t="n">
+        <v>3.570495797588183</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>282.64000000</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>282.94000000</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>274.20000000</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>281.50000000</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>259325.65012000</t>
+        </is>
+      </c>
+      <c r="G918" t="n">
+        <v>1582156799999</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>72415979.83933530</t>
+        </is>
+      </c>
+      <c r="I918" t="n">
+        <v>117736</v>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>129185.43359000</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>36083461.40367740</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>2020-02-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M918" t="n">
+        <v>281.4999999999993</v>
+      </c>
+      <c r="N918" t="n">
+        <v>282.0550000000001</v>
+      </c>
+      <c r="O918" t="n">
+        <v>272.7371428571417</v>
+      </c>
+      <c r="P918" t="n">
+        <v>248.4213333333337</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>211.7400000000002</v>
+      </c>
+      <c r="R918" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="S918" t="n">
+        <v>280.0251871234084</v>
+      </c>
+      <c r="T918" t="n">
+        <v>256.7962319932066</v>
+      </c>
+      <c r="U918" t="n">
+        <v>228.854682802849</v>
+      </c>
+      <c r="V918" t="n">
+        <v>27.94154919035753</v>
+      </c>
+      <c r="W918" t="n">
+        <v>24.86117750646197</v>
+      </c>
+      <c r="X918" t="n">
+        <v>3.080371683895567</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X918"/>
+  <dimension ref="A1:X921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84666,22 +84666,22 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>282.94000000</t>
+          <t>285.00000000</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>274.20000000</t>
+          <t>251.56000000</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>281.50000000</t>
+          <t>258.45000000</t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>259325.65012000</t>
+          <t>705973.72988000</t>
         </is>
       </c>
       <c r="G918" t="n">
@@ -84689,20 +84689,20 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>72415979.83933530</t>
+          <t>191887955.75834830</t>
         </is>
       </c>
       <c r="I918" t="n">
-        <v>117736</v>
+        <v>298048</v>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>129185.43359000</t>
+          <t>343303.10692000</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>36083461.40367740</t>
+          <t>93329064.50806450</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
@@ -84711,40 +84711,316 @@
         </is>
       </c>
       <c r="M918" t="n">
-        <v>281.4999999999993</v>
+        <v>258.4499999999992</v>
       </c>
       <c r="N918" t="n">
-        <v>282.0550000000001</v>
+        <v>270.5300000000001</v>
       </c>
       <c r="O918" t="n">
-        <v>272.7371428571417</v>
+        <v>269.4442857142846</v>
       </c>
       <c r="P918" t="n">
-        <v>248.4213333333337</v>
+        <v>246.8846666666671</v>
       </c>
       <c r="Q918" t="n">
-        <v>211.7400000000002</v>
+        <v>210.9716666666668</v>
       </c>
       <c r="R918" t="n">
-        <v>281.5</v>
+        <v>258.45</v>
       </c>
       <c r="S918" t="n">
-        <v>280.0251871234084</v>
+        <v>264.6585204567417</v>
       </c>
       <c r="T918" t="n">
-        <v>256.7962319932066</v>
+        <v>253.2500781470527</v>
       </c>
       <c r="U918" t="n">
-        <v>228.854682802849</v>
+        <v>227.1472753954416</v>
       </c>
       <c r="V918" t="n">
-        <v>27.94154919035753</v>
+        <v>26.10280275161111</v>
       </c>
       <c r="W918" t="n">
-        <v>24.86117750646197</v>
+        <v>24.49342821871268</v>
       </c>
       <c r="X918" t="n">
-        <v>3.080371683895567</v>
+        <v>1.609374532898425</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>258.44000000</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>264.33000000</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>245.34000000</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>256.96000000</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>972969.71691000</t>
+        </is>
+      </c>
+      <c r="G919" t="n">
+        <v>1582243199999</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>249383114.01101130</t>
+        </is>
+      </c>
+      <c r="I919" t="n">
+        <v>373551</v>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>494884.31858000</t>
+        </is>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>126895480.43393930</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>2020-02-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M919" t="n">
+        <v>256.9599999999992</v>
+      </c>
+      <c r="N919" t="n">
+        <v>257.7050000000001</v>
+      </c>
+      <c r="O919" t="n">
+        <v>267.8214285714274</v>
+      </c>
+      <c r="P919" t="n">
+        <v>250.4300000000004</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>213.8873333333335</v>
+      </c>
+      <c r="R919" t="n">
+        <v>256.96</v>
+      </c>
+      <c r="S919" t="n">
+        <v>259.5261734855806</v>
+      </c>
+      <c r="T919" t="n">
+        <v>253.8208353551985</v>
+      </c>
+      <c r="U919" t="n">
+        <v>229.3556253661496</v>
+      </c>
+      <c r="V919" t="n">
+        <v>24.46520998904884</v>
+      </c>
+      <c r="W919" t="n">
+        <v>24.48778457277992</v>
+      </c>
+      <c r="X919" t="n">
+        <v>-0.02257458373107468</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>256.97000000</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>268.24000000</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>253.61000000</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>265.27000000</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>525827.87340000</t>
+        </is>
+      </c>
+      <c r="G920" t="n">
+        <v>1582329599999</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>137848242.42793050</t>
+        </is>
+      </c>
+      <c r="I920" t="n">
+        <v>214306</v>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>269791.13743000</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>70748990.19707250</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>2020-02-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M920" t="n">
+        <v>265.2699999999991</v>
+      </c>
+      <c r="N920" t="n">
+        <v>261.1150000000001</v>
+      </c>
+      <c r="O920" t="n">
+        <v>264.9814285714274</v>
+      </c>
+      <c r="P920" t="n">
+        <v>253.9020000000004</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>217.1273333333335</v>
+      </c>
+      <c r="R920" t="n">
+        <v>265.27</v>
+      </c>
+      <c r="S920" t="n">
+        <v>263.3553911618602</v>
+      </c>
+      <c r="T920" t="n">
+        <v>255.5822453005526</v>
+      </c>
+      <c r="U920" t="n">
+        <v>232.0159494131015</v>
+      </c>
+      <c r="V920" t="n">
+        <v>23.56629588745108</v>
+      </c>
+      <c r="W920" t="n">
+        <v>24.30348683571415</v>
+      </c>
+      <c r="X920" t="n">
+        <v>-0.737190948263077</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>265.32000000</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>266.81000000</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>256.00000000</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>260.07000000</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>131198.45412000</t>
+        </is>
+      </c>
+      <c r="G921" t="n">
+        <v>1582415999999</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>34246889.54929590</t>
+        </is>
+      </c>
+      <c r="I921" t="n">
+        <v>56352</v>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>65789.53417000</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>17180024.14857720</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>2020-02-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M921" t="n">
+        <v>260.0699999999991</v>
+      </c>
+      <c r="N921" t="n">
+        <v>262.6700000000001</v>
+      </c>
+      <c r="O921" t="n">
+        <v>264.2942857142846</v>
+      </c>
+      <c r="P921" t="n">
+        <v>256.3513333333337</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>220.3693333333335</v>
+      </c>
+      <c r="R921" t="n">
+        <v>260.07</v>
+      </c>
+      <c r="S921" t="n">
+        <v>261.1651303872868</v>
+      </c>
+      <c r="T921" t="n">
+        <v>256.2726691004675</v>
+      </c>
+      <c r="U921" t="n">
+        <v>234.0940272343533</v>
+      </c>
+      <c r="V921" t="n">
+        <v>22.17864186611425</v>
+      </c>
+      <c r="W921" t="n">
+        <v>23.87851784179417</v>
+      </c>
+      <c r="X921" t="n">
+        <v>-1.699875975679927</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X921"/>
+  <dimension ref="A1:X922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84952,12 +84952,12 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>260.07000000</t>
+          <t>261.57000000</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>131198.45412000</t>
+          <t>313062.52133000</t>
         </is>
       </c>
       <c r="G921" t="n">
@@ -84965,20 +84965,20 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>34246889.54929590</t>
+          <t>81781388.31935340</t>
         </is>
       </c>
       <c r="I921" t="n">
-        <v>56352</v>
+        <v>136810</v>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>65789.53417000</t>
+          <t>156822.35067000</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>17180024.14857720</t>
+          <t>40974857.93911700</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
@@ -84987,40 +84987,132 @@
         </is>
       </c>
       <c r="M921" t="n">
-        <v>260.0699999999991</v>
+        <v>261.5699999999991</v>
       </c>
       <c r="N921" t="n">
-        <v>262.6700000000001</v>
+        <v>263.4200000000001</v>
       </c>
       <c r="O921" t="n">
-        <v>264.2942857142846</v>
+        <v>264.5085714285703</v>
       </c>
       <c r="P921" t="n">
-        <v>256.3513333333337</v>
+        <v>256.4513333333337</v>
       </c>
       <c r="Q921" t="n">
-        <v>220.3693333333335</v>
+        <v>220.4193333333335</v>
       </c>
       <c r="R921" t="n">
-        <v>260.07</v>
+        <v>261.57</v>
       </c>
       <c r="S921" t="n">
-        <v>261.1651303872868</v>
+        <v>262.1651303872868</v>
       </c>
       <c r="T921" t="n">
-        <v>256.2726691004675</v>
+        <v>256.5034383312367</v>
       </c>
       <c r="U921" t="n">
-        <v>234.0940272343533</v>
+        <v>234.2051383454643</v>
       </c>
       <c r="V921" t="n">
-        <v>22.17864186611425</v>
+        <v>22.29829998577239</v>
       </c>
       <c r="W921" t="n">
-        <v>23.87851784179417</v>
+        <v>23.9024494657258</v>
       </c>
       <c r="X921" t="n">
-        <v>-1.699875975679927</v>
+        <v>-1.604149479953414</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>261.55000000</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>271.89000000</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>261.02000000</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>271.26000000</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>137390.03840000</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>1582502399999</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>36664433.36800430</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>54676</v>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>71592.76913000</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>19098960.29653940</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>2020-02-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M922" t="n">
+        <v>271.2599999999991</v>
+      </c>
+      <c r="N922" t="n">
+        <v>266.4150000000001</v>
+      </c>
+      <c r="O922" t="n">
+        <v>266.2814285714275</v>
+      </c>
+      <c r="P922" t="n">
+        <v>259.6653333333337</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>224.0433333333335</v>
+      </c>
+      <c r="R922" t="n">
+        <v>271.26</v>
+      </c>
+      <c r="S922" t="n">
+        <v>268.2283767957622</v>
+      </c>
+      <c r="T922" t="n">
+        <v>258.7736785879696</v>
+      </c>
+      <c r="U922" t="n">
+        <v>236.949942912467</v>
+      </c>
+      <c r="V922" t="n">
+        <v>21.82373567550258</v>
+      </c>
+      <c r="W922" t="n">
+        <v>23.48670670768116</v>
+      </c>
+      <c r="X922" t="n">
+        <v>-1.662971032178582</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X922"/>
+  <dimension ref="A1:X927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85034,7 +85034,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>271.89000000</t>
+          <t>275.68000000</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
@@ -85044,12 +85044,12 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>271.26000000</t>
+          <t>274.48000000</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>137390.03840000</t>
+          <t>444740.82883000</t>
         </is>
       </c>
       <c r="G922" t="n">
@@ -85057,20 +85057,20 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>36664433.36800430</t>
+          <t>120024058.97196630</t>
         </is>
       </c>
       <c r="I922" t="n">
-        <v>54676</v>
+        <v>178464</v>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>71592.76913000</t>
+          <t>225478.68725000</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>19098960.29653940</t>
+          <t>60845374.19844940</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
@@ -85079,40 +85079,500 @@
         </is>
       </c>
       <c r="M922" t="n">
-        <v>271.2599999999991</v>
+        <v>274.4799999999992</v>
       </c>
       <c r="N922" t="n">
-        <v>266.4150000000001</v>
+        <v>268.0250000000001</v>
       </c>
       <c r="O922" t="n">
-        <v>266.2814285714275</v>
+        <v>266.7414285714275</v>
       </c>
       <c r="P922" t="n">
-        <v>259.6653333333337</v>
+        <v>259.8800000000003</v>
       </c>
       <c r="Q922" t="n">
-        <v>224.0433333333335</v>
+        <v>224.1506666666668</v>
       </c>
       <c r="R922" t="n">
-        <v>271.26</v>
+        <v>274.48</v>
       </c>
       <c r="S922" t="n">
-        <v>268.2283767957622</v>
+        <v>270.3750434624289</v>
       </c>
       <c r="T922" t="n">
-        <v>258.7736785879696</v>
+        <v>259.2690632033542</v>
       </c>
       <c r="U922" t="n">
-        <v>236.949942912467</v>
+        <v>237.1884614309855</v>
       </c>
       <c r="V922" t="n">
-        <v>21.82373567550258</v>
+        <v>22.08060177236865</v>
       </c>
       <c r="W922" t="n">
-        <v>23.48670670768116</v>
+        <v>23.53807992705438</v>
       </c>
       <c r="X922" t="n">
-        <v>-1.662971032178582</v>
+        <v>-1.457478154685724</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>274.50000000</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>277.20000000</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>257.09000000</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>265.52000000</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>696591.72983000</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>1582588799999</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>185949182.70858070</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>263161</v>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>330793.92829000</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>88287487.18652770</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>2020-02-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M923" t="n">
+        <v>265.5199999999991</v>
+      </c>
+      <c r="N923" t="n">
+        <v>270.0000000000001</v>
+      </c>
+      <c r="O923" t="n">
+        <v>266.4085714285703</v>
+      </c>
+      <c r="P923" t="n">
+        <v>262.348666666667</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>227.6563333333335</v>
+      </c>
+      <c r="R923" t="n">
+        <v>265.52</v>
+      </c>
+      <c r="S923" t="n">
+        <v>267.1383478208097</v>
+      </c>
+      <c r="T923" t="n">
+        <v>260.2307457874535</v>
+      </c>
+      <c r="U923" t="n">
+        <v>239.2870939175792</v>
+      </c>
+      <c r="V923" t="n">
+        <v>20.94365186987432</v>
+      </c>
+      <c r="W923" t="n">
+        <v>23.01919431561837</v>
+      </c>
+      <c r="X923" t="n">
+        <v>-2.075542445744052</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>265.47000000</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>266.22000000</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>244.44000000</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>246.67000000</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>774791.01027000</t>
+        </is>
+      </c>
+      <c r="G924" t="n">
+        <v>1582675199999</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>197442911.54473170</t>
+        </is>
+      </c>
+      <c r="I924" t="n">
+        <v>277457</v>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>381947.38852000</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>97346482.22595150</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>2020-02-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M924" t="n">
+        <v>246.669999999999</v>
+      </c>
+      <c r="N924" t="n">
+        <v>256.0950000000001</v>
+      </c>
+      <c r="O924" t="n">
+        <v>261.2742857142846</v>
+      </c>
+      <c r="P924" t="n">
+        <v>263.9340000000004</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>230.2833333333335</v>
+      </c>
+      <c r="R924" t="n">
+        <v>246.67</v>
+      </c>
+      <c r="S924" t="n">
+        <v>253.4927826069365</v>
+      </c>
+      <c r="T924" t="n">
+        <v>258.1444772047684</v>
+      </c>
+      <c r="U924" t="n">
+        <v>239.8339758496103</v>
+      </c>
+      <c r="V924" t="n">
+        <v>18.31050135515801</v>
+      </c>
+      <c r="W924" t="n">
+        <v>22.0774557235263</v>
+      </c>
+      <c r="X924" t="n">
+        <v>-3.766954368368289</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>246.67000000</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>250.32000000</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>215.66000000</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>223.93000000</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>1395879.41507000</t>
+        </is>
+      </c>
+      <c r="G925" t="n">
+        <v>1582761599999</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>324229460.62116020</t>
+        </is>
+      </c>
+      <c r="I925" t="n">
+        <v>454355</v>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>656347.55839000</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>152612432.44475370</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>2020-02-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M925" t="n">
+        <v>223.9299999999991</v>
+      </c>
+      <c r="N925" t="n">
+        <v>235.3000000000001</v>
+      </c>
+      <c r="O925" t="n">
+        <v>256.342857142856</v>
+      </c>
+      <c r="P925" t="n">
+        <v>263.0833333333337</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>232.0783333333335</v>
+      </c>
+      <c r="R925" t="n">
+        <v>223.93</v>
+      </c>
+      <c r="S925" t="n">
+        <v>233.7842608689789</v>
+      </c>
+      <c r="T925" t="n">
+        <v>252.8807114809578</v>
+      </c>
+      <c r="U925" t="n">
+        <v>238.655903564454</v>
+      </c>
+      <c r="V925" t="n">
+        <v>14.22480791650383</v>
+      </c>
+      <c r="W925" t="n">
+        <v>20.50692616212181</v>
+      </c>
+      <c r="X925" t="n">
+        <v>-6.282118245617973</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>223.98000000</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>238.30000000</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>210.00000000</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>227.79000000</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>1273793.11658000</t>
+        </is>
+      </c>
+      <c r="G926" t="n">
+        <v>1582847999999</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>287322727.29672570</t>
+        </is>
+      </c>
+      <c r="I926" t="n">
+        <v>415969</v>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>627806.95842000</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>141632481.67214530</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>2020-02-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M926" t="n">
+        <v>227.7899999999991</v>
+      </c>
+      <c r="N926" t="n">
+        <v>225.8600000000001</v>
+      </c>
+      <c r="O926" t="n">
+        <v>252.1757142857132</v>
+      </c>
+      <c r="P926" t="n">
+        <v>260.5533333333337</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>233.8166666666668</v>
+      </c>
+      <c r="R926" t="n">
+        <v>227.79</v>
+      </c>
+      <c r="S926" t="n">
+        <v>229.7880869563263</v>
+      </c>
+      <c r="T926" t="n">
+        <v>249.0206020223489</v>
+      </c>
+      <c r="U926" t="n">
+        <v>237.8510218189389</v>
+      </c>
+      <c r="V926" t="n">
+        <v>11.16958020341002</v>
+      </c>
+      <c r="W926" t="n">
+        <v>18.63945697037945</v>
+      </c>
+      <c r="X926" t="n">
+        <v>-7.469876766969431</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>227.73000000</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>234.67000000</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>222.60000000</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>224.33000000</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>244192.69115000</t>
+        </is>
+      </c>
+      <c r="G927" t="n">
+        <v>1582934399999</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>55907742.06505630</t>
+        </is>
+      </c>
+      <c r="I927" t="n">
+        <v>85540</v>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>123624.76793000</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>28304690.85637820</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>2020-02-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M927" t="n">
+        <v>224.3299999999991</v>
+      </c>
+      <c r="N927" t="n">
+        <v>226.0600000000001</v>
+      </c>
+      <c r="O927" t="n">
+        <v>246.3271428571417</v>
+      </c>
+      <c r="P927" t="n">
+        <v>257.620666666667</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>235.5036666666668</v>
+      </c>
+      <c r="R927" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="S927" t="n">
+        <v>226.1493623187754</v>
+      </c>
+      <c r="T927" t="n">
+        <v>245.2220478650645</v>
+      </c>
+      <c r="U927" t="n">
+        <v>236.8494646471657</v>
+      </c>
+      <c r="V927" t="n">
+        <v>8.372583217898807</v>
+      </c>
+      <c r="W927" t="n">
+        <v>16.58608221988332</v>
+      </c>
+      <c r="X927" t="n">
+        <v>-8.213499001984516</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -85504,12 +85504,12 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>224.33000000</t>
+          <t>225.53000000</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>244192.69115000</t>
+          <t>277442.61882000</t>
         </is>
       </c>
       <c r="G927" t="n">
@@ -85517,20 +85517,20 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>55907742.06505630</t>
+          <t>63389955.20558640</t>
         </is>
       </c>
       <c r="I927" t="n">
-        <v>85540</v>
+        <v>97088</v>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>123624.76793000</t>
+          <t>139854.34575000</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>28304690.85637820</t>
+          <t>31957253.28598410</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -85539,40 +85539,40 @@
         </is>
       </c>
       <c r="M927" t="n">
-        <v>224.3299999999991</v>
+        <v>225.529999999999</v>
       </c>
       <c r="N927" t="n">
-        <v>226.0600000000001</v>
+        <v>226.6600000000001</v>
       </c>
       <c r="O927" t="n">
-        <v>246.3271428571417</v>
+        <v>246.4985714285703</v>
       </c>
       <c r="P927" t="n">
-        <v>257.620666666667</v>
+        <v>257.700666666667</v>
       </c>
       <c r="Q927" t="n">
-        <v>235.5036666666668</v>
+        <v>235.5436666666668</v>
       </c>
       <c r="R927" t="n">
-        <v>224.33</v>
+        <v>225.53</v>
       </c>
       <c r="S927" t="n">
-        <v>226.1493623187754</v>
+        <v>226.9493623187754</v>
       </c>
       <c r="T927" t="n">
-        <v>245.2220478650645</v>
+        <v>245.4066632496799</v>
       </c>
       <c r="U927" t="n">
-        <v>236.8494646471657</v>
+        <v>236.9383535360546</v>
       </c>
       <c r="V927" t="n">
-        <v>8.372583217898807</v>
+        <v>8.468309713625302</v>
       </c>
       <c r="W927" t="n">
-        <v>16.58608221988332</v>
+        <v>16.60522751902862</v>
       </c>
       <c r="X927" t="n">
-        <v>-8.213499001984516</v>
+        <v>-8.136917805403321</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -85499,17 +85499,17 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>222.60000000</t>
+          <t>214.01000000</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>225.53000000</t>
+          <t>222.81000000</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>277442.61882000</t>
+          <t>848128.28112000</t>
         </is>
       </c>
       <c r="G927" t="n">
@@ -85517,20 +85517,20 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>63389955.20558640</t>
+          <t>189689733.37432200</t>
         </is>
       </c>
       <c r="I927" t="n">
-        <v>97088</v>
+        <v>270666</v>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>139854.34575000</t>
+          <t>407001.92892000</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>31957253.28598410</t>
+          <t>91127855.04634910</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -85539,40 +85539,40 @@
         </is>
       </c>
       <c r="M927" t="n">
-        <v>225.529999999999</v>
+        <v>222.8099999999991</v>
       </c>
       <c r="N927" t="n">
-        <v>226.6600000000001</v>
+        <v>225.3000000000001</v>
       </c>
       <c r="O927" t="n">
-        <v>246.4985714285703</v>
+        <v>246.1099999999988</v>
       </c>
       <c r="P927" t="n">
-        <v>257.700666666667</v>
+        <v>257.5193333333337</v>
       </c>
       <c r="Q927" t="n">
-        <v>235.5436666666668</v>
+        <v>235.4530000000001</v>
       </c>
       <c r="R927" t="n">
-        <v>225.53</v>
+        <v>222.81</v>
       </c>
       <c r="S927" t="n">
-        <v>226.9493623187754</v>
+        <v>225.1360289854421</v>
       </c>
       <c r="T927" t="n">
-        <v>245.4066632496799</v>
+        <v>244.9882017112183</v>
       </c>
       <c r="U927" t="n">
-        <v>236.9383535360546</v>
+        <v>236.7368720545731</v>
       </c>
       <c r="V927" t="n">
-        <v>8.468309713625302</v>
+        <v>8.251329656645254</v>
       </c>
       <c r="W927" t="n">
-        <v>16.60522751902862</v>
+        <v>16.56183150763261</v>
       </c>
       <c r="X927" t="n">
-        <v>-8.136917805403321</v>
+        <v>-8.310501850987357</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X927"/>
+  <dimension ref="A1:X928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85504,12 +85504,12 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>222.81000000</t>
+          <t>226.76000000</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>848128.28112000</t>
+          <t>1054994.92397000</t>
         </is>
       </c>
       <c r="G927" t="n">
@@ -85517,20 +85517,20 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>189689733.37432200</t>
+          <t>236064804.33459430</t>
         </is>
       </c>
       <c r="I927" t="n">
-        <v>270666</v>
+        <v>347125</v>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>407001.92892000</t>
+          <t>510185.33752000</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>91127855.04634910</t>
+          <t>114271376.01220230</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -85539,40 +85539,132 @@
         </is>
       </c>
       <c r="M927" t="n">
-        <v>222.8099999999991</v>
+        <v>226.7599999999991</v>
       </c>
       <c r="N927" t="n">
-        <v>225.3000000000001</v>
+        <v>227.2750000000001</v>
       </c>
       <c r="O927" t="n">
-        <v>246.1099999999988</v>
+        <v>246.6742857142846</v>
       </c>
       <c r="P927" t="n">
-        <v>257.5193333333337</v>
+        <v>257.7826666666671</v>
       </c>
       <c r="Q927" t="n">
-        <v>235.4530000000001</v>
+        <v>235.5846666666668</v>
       </c>
       <c r="R927" t="n">
-        <v>222.81</v>
+        <v>226.76</v>
       </c>
       <c r="S927" t="n">
-        <v>225.1360289854421</v>
+        <v>227.7693623187754</v>
       </c>
       <c r="T927" t="n">
-        <v>244.9882017112183</v>
+        <v>245.5958940189106</v>
       </c>
       <c r="U927" t="n">
-        <v>236.7368720545731</v>
+        <v>237.0294646471656</v>
       </c>
       <c r="V927" t="n">
-        <v>8.251329656645254</v>
+        <v>8.566429371744988</v>
       </c>
       <c r="W927" t="n">
-        <v>16.56183150763261</v>
+        <v>16.62485145065256</v>
       </c>
       <c r="X927" t="n">
-        <v>-8.310501850987357</v>
+        <v>-8.058422078907572</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>226.76000000</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>233.00000000</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>226.66000000</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>227.77000000</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>190005.45453000</t>
+        </is>
+      </c>
+      <c r="G928" t="n">
+        <v>1583020799999</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>43646913.58164920</t>
+        </is>
+      </c>
+      <c r="I928" t="n">
+        <v>72779</v>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>95828.97252000</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>22017960.69998580</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>2020-02-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M928" t="n">
+        <v>227.7699999999991</v>
+      </c>
+      <c r="N928" t="n">
+        <v>227.2650000000001</v>
+      </c>
+      <c r="O928" t="n">
+        <v>241.8457142857132</v>
+      </c>
+      <c r="P928" t="n">
+        <v>253.9573333333337</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>237.0206666666668</v>
+      </c>
+      <c r="R928" t="n">
+        <v>227.77</v>
+      </c>
+      <c r="S928" t="n">
+        <v>227.7697874395918</v>
+      </c>
+      <c r="T928" t="n">
+        <v>242.8534487852321</v>
+      </c>
+      <c r="U928" t="n">
+        <v>236.3435783770052</v>
+      </c>
+      <c r="V928" t="n">
+        <v>6.509870408226845</v>
+      </c>
+      <c r="W928" t="n">
+        <v>14.60185524216742</v>
+      </c>
+      <c r="X928" t="n">
+        <v>-8.091984833940572</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -85596,12 +85596,12 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>227.77000000</t>
+          <t>229.45000000</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>190005.45453000</t>
+          <t>204950.68882000</t>
         </is>
       </c>
       <c r="G928" t="n">
@@ -85609,20 +85609,20 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>43646913.58164920</t>
+          <t>47063270.07844140</t>
         </is>
       </c>
       <c r="I928" t="n">
-        <v>72779</v>
+        <v>77516</v>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>95828.97252000</t>
+          <t>105324.61906000</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>22017960.69998580</t>
+          <t>24188566.28821730</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
@@ -85631,40 +85631,40 @@
         </is>
       </c>
       <c r="M928" t="n">
-        <v>227.7699999999991</v>
+        <v>229.449999999999</v>
       </c>
       <c r="N928" t="n">
-        <v>227.2650000000001</v>
+        <v>228.1050000000001</v>
       </c>
       <c r="O928" t="n">
-        <v>241.8457142857132</v>
+        <v>242.0857142857132</v>
       </c>
       <c r="P928" t="n">
-        <v>253.9573333333337</v>
+        <v>254.0693333333337</v>
       </c>
       <c r="Q928" t="n">
-        <v>237.0206666666668</v>
+        <v>237.0766666666668</v>
       </c>
       <c r="R928" t="n">
-        <v>227.77</v>
+        <v>229.45</v>
       </c>
       <c r="S928" t="n">
-        <v>227.7697874395918</v>
+        <v>228.8897874395918</v>
       </c>
       <c r="T928" t="n">
-        <v>242.8534487852321</v>
+        <v>243.1119103236936</v>
       </c>
       <c r="U928" t="n">
-        <v>236.3435783770052</v>
+        <v>236.4680228214497</v>
       </c>
       <c r="V928" t="n">
-        <v>6.509870408226845</v>
+        <v>6.643887502243956</v>
       </c>
       <c r="W928" t="n">
-        <v>14.60185524216742</v>
+        <v>14.62865866097084</v>
       </c>
       <c r="X928" t="n">
-        <v>-8.091984833940572</v>
+        <v>-7.984771158726883</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X928"/>
+  <dimension ref="A1:X935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85591,17 +85591,17 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>226.66000000</t>
+          <t>217.00000000</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>229.45000000</t>
+          <t>217.21000000</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>204950.68882000</t>
+          <t>546866.68510000</t>
         </is>
       </c>
       <c r="G928" t="n">
@@ -85609,20 +85609,20 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>47063270.07844140</t>
+          <t>123635801.01782530</t>
         </is>
       </c>
       <c r="I928" t="n">
-        <v>77516</v>
+        <v>211771</v>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>105324.61906000</t>
+          <t>276266.12871000</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>24188566.28821730</t>
+          <t>62479741.17673970</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
@@ -85631,40 +85631,684 @@
         </is>
       </c>
       <c r="M928" t="n">
-        <v>229.449999999999</v>
+        <v>217.2099999999991</v>
       </c>
       <c r="N928" t="n">
-        <v>228.1050000000001</v>
+        <v>221.9850000000001</v>
       </c>
       <c r="O928" t="n">
-        <v>242.0857142857132</v>
+        <v>240.3371428571417</v>
       </c>
       <c r="P928" t="n">
-        <v>254.0693333333337</v>
+        <v>253.2533333333337</v>
       </c>
       <c r="Q928" t="n">
-        <v>237.0766666666668</v>
+        <v>236.6686666666668</v>
       </c>
       <c r="R928" t="n">
-        <v>229.45</v>
+        <v>217.21</v>
       </c>
       <c r="S928" t="n">
-        <v>228.8897874395918</v>
+        <v>220.7297874395918</v>
       </c>
       <c r="T928" t="n">
-        <v>243.1119103236936</v>
+        <v>241.2288334006167</v>
       </c>
       <c r="U928" t="n">
-        <v>236.4680228214497</v>
+        <v>235.561356154783</v>
       </c>
       <c r="V928" t="n">
-        <v>6.643887502243956</v>
+        <v>5.66747724583368</v>
       </c>
       <c r="W928" t="n">
-        <v>14.62865866097084</v>
+        <v>14.43337660968878</v>
       </c>
       <c r="X928" t="n">
-        <v>-7.984771158726883</v>
+        <v>-8.765899363855103</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>217.29000000</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>227.89000000</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>212.36000000</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>217.81000000</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>715016.01941000</t>
+        </is>
+      </c>
+      <c r="G929" t="n">
+        <v>1583107199999</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>157064953.84227790</t>
+        </is>
+      </c>
+      <c r="I929" t="n">
+        <v>265577</v>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>360047.11333000</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>79085739.01183300</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>2020-03-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M929" t="n">
+        <v>217.8099999999991</v>
+      </c>
+      <c r="N929" t="n">
+        <v>217.5100000000001</v>
+      </c>
+      <c r="O929" t="n">
+        <v>232.2414285714274</v>
+      </c>
+      <c r="P929" t="n">
+        <v>250.1153333333337</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>237.9293333333335</v>
+      </c>
+      <c r="R929" t="n">
+        <v>217.81</v>
+      </c>
+      <c r="S929" t="n">
+        <v>218.783262479864</v>
+      </c>
+      <c r="T929" t="n">
+        <v>237.625935954368</v>
+      </c>
+      <c r="U929" t="n">
+        <v>234.2464408840583</v>
+      </c>
+      <c r="V929" t="n">
+        <v>3.379495070309645</v>
+      </c>
+      <c r="W929" t="n">
+        <v>12.22260030181296</v>
+      </c>
+      <c r="X929" t="n">
+        <v>-8.843105231503312</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>217.81000000</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>234.40000000</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>216.07000000</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>231.97000000</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>810051.48330000</t>
+        </is>
+      </c>
+      <c r="G930" t="n">
+        <v>1583193599999</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>182948651.67645310</t>
+        </is>
+      </c>
+      <c r="I930" t="n">
+        <v>258680</v>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>402597.52232000</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>90992396.71547610</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>2020-03-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M930" t="n">
+        <v>231.9699999999991</v>
+      </c>
+      <c r="N930" t="n">
+        <v>224.8900000000001</v>
+      </c>
+      <c r="O930" t="n">
+        <v>227.4485714285703</v>
+      </c>
+      <c r="P930" t="n">
+        <v>248.3233333333337</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>239.5416666666669</v>
+      </c>
+      <c r="R930" t="n">
+        <v>231.97</v>
+      </c>
+      <c r="S930" t="n">
+        <v>227.5744208266213</v>
+      </c>
+      <c r="T930" t="n">
+        <v>236.7557919613883</v>
+      </c>
+      <c r="U930" t="n">
+        <v>234.0778156333873</v>
+      </c>
+      <c r="V930" t="n">
+        <v>2.677976328000966</v>
+      </c>
+      <c r="W930" t="n">
+        <v>10.31367550705056</v>
+      </c>
+      <c r="X930" t="n">
+        <v>-7.635699179049594</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>232.10000000</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>232.46000000</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>219.57000000</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>223.91000000</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>741498.54825000</t>
+        </is>
+      </c>
+      <c r="G931" t="n">
+        <v>1583279999999</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>168090325.53879240</t>
+        </is>
+      </c>
+      <c r="I931" t="n">
+        <v>253103</v>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>370933.36958000</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>84105282.69583100</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>2020-03-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M931" t="n">
+        <v>223.9099999999991</v>
+      </c>
+      <c r="N931" t="n">
+        <v>227.9400000000001</v>
+      </c>
+      <c r="O931" t="n">
+        <v>224.1971428571417</v>
+      </c>
+      <c r="P931" t="n">
+        <v>245.3940000000003</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>240.7240000000002</v>
+      </c>
+      <c r="R931" t="n">
+        <v>223.91</v>
+      </c>
+      <c r="S931" t="n">
+        <v>225.1314736088738</v>
+      </c>
+      <c r="T931" t="n">
+        <v>234.7795162750209</v>
+      </c>
+      <c r="U931" t="n">
+        <v>233.3246441049883</v>
+      </c>
+      <c r="V931" t="n">
+        <v>1.454872170032615</v>
+      </c>
+      <c r="W931" t="n">
+        <v>8.541914839646971</v>
+      </c>
+      <c r="X931" t="n">
+        <v>-7.087042669614355</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>223.84000000</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>228.85000000</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>220.23000000</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>224.26000000</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>443780.33772000</t>
+        </is>
+      </c>
+      <c r="G932" t="n">
+        <v>1583366399999</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>99650220.54162080</t>
+        </is>
+      </c>
+      <c r="I932" t="n">
+        <v>167247</v>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>218963.33645000</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>49186332.76661420</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>2020-03-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M932" t="n">
+        <v>224.2599999999991</v>
+      </c>
+      <c r="N932" t="n">
+        <v>224.085</v>
+      </c>
+      <c r="O932" t="n">
+        <v>224.2442857142846</v>
+      </c>
+      <c r="P932" t="n">
+        <v>241.5040000000004</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>241.8763333333335</v>
+      </c>
+      <c r="R932" t="n">
+        <v>224.26</v>
+      </c>
+      <c r="S932" t="n">
+        <v>224.5504912029579</v>
+      </c>
+      <c r="T932" t="n">
+        <v>233.1611291557869</v>
+      </c>
+      <c r="U932" t="n">
+        <v>232.6531889861002</v>
+      </c>
+      <c r="V932" t="n">
+        <v>0.5079401696866341</v>
+      </c>
+      <c r="W932" t="n">
+        <v>6.935119905654903</v>
+      </c>
+      <c r="X932" t="n">
+        <v>-6.427179735968269</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>224.26000000</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>234.09000000</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>224.23000000</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>228.38000000</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>601479.87587000</t>
+        </is>
+      </c>
+      <c r="G933" t="n">
+        <v>1583452799999</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>138081898.28666810</t>
+        </is>
+      </c>
+      <c r="I933" t="n">
+        <v>227242</v>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>297495.35318000</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>68301116.79467770</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>2020-03-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M933" t="n">
+        <v>228.3799999999991</v>
+      </c>
+      <c r="N933" t="n">
+        <v>226.3200000000001</v>
+      </c>
+      <c r="O933" t="n">
+        <v>224.3285714285703</v>
+      </c>
+      <c r="P933" t="n">
+        <v>239.4993333333337</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>243.1920000000002</v>
+      </c>
+      <c r="R933" t="n">
+        <v>228.38</v>
+      </c>
+      <c r="S933" t="n">
+        <v>227.1034970676526</v>
+      </c>
+      <c r="T933" t="n">
+        <v>232.4255708241274</v>
+      </c>
+      <c r="U933" t="n">
+        <v>232.3366564686113</v>
+      </c>
+      <c r="V933" t="n">
+        <v>0.08891435551603877</v>
+      </c>
+      <c r="W933" t="n">
+        <v>5.56587879562713</v>
+      </c>
+      <c r="X933" t="n">
+        <v>-5.476964440111091</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>228.38000000</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>245.16000000</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>227.33000000</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>244.88000000</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>628147.32570000</t>
+        </is>
+      </c>
+      <c r="G934" t="n">
+        <v>1583539199999</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>148563741.83299240</t>
+        </is>
+      </c>
+      <c r="I934" t="n">
+        <v>234091</v>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>328731.56561000</t>
+        </is>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>77799831.59926970</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>2020-03-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M934" t="n">
+        <v>244.8799999999991</v>
+      </c>
+      <c r="N934" t="n">
+        <v>236.6300000000001</v>
+      </c>
+      <c r="O934" t="n">
+        <v>226.9171428571417</v>
+      </c>
+      <c r="P934" t="n">
+        <v>238.6940000000004</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>244.5620000000002</v>
+      </c>
+      <c r="R934" t="n">
+        <v>244.88</v>
+      </c>
+      <c r="S934" t="n">
+        <v>238.9544990225509</v>
+      </c>
+      <c r="T934" t="n">
+        <v>234.3416368511847</v>
+      </c>
+      <c r="U934" t="n">
+        <v>233.265793026492</v>
+      </c>
+      <c r="V934" t="n">
+        <v>1.075843824692726</v>
+      </c>
+      <c r="W934" t="n">
+        <v>4.667871801440249</v>
+      </c>
+      <c r="X934" t="n">
+        <v>-3.592027976747524</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>244.93000000</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>246.11000000</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>241.10000000</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>243.13000000</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>148782.05937000</t>
+        </is>
+      </c>
+      <c r="G935" t="n">
+        <v>1583625599999</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>36223280.60725200</t>
+        </is>
+      </c>
+      <c r="I935" t="n">
+        <v>56610</v>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>71284.45888000</t>
+        </is>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>17360456.75011150</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>2020-03-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M935" t="n">
+        <v>243.1299999999991</v>
+      </c>
+      <c r="N935" t="n">
+        <v>244.0050000000001</v>
+      </c>
+      <c r="O935" t="n">
+        <v>230.6199999999988</v>
+      </c>
+      <c r="P935" t="n">
+        <v>237.2180000000004</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>245.5600000000003</v>
+      </c>
+      <c r="R935" t="n">
+        <v>243.13</v>
+      </c>
+      <c r="S935" t="n">
+        <v>241.7381663408503</v>
+      </c>
+      <c r="T935" t="n">
+        <v>235.6936927202332</v>
+      </c>
+      <c r="U935" t="n">
+        <v>233.9964750245296</v>
+      </c>
+      <c r="V935" t="n">
+        <v>1.697217695703557</v>
+      </c>
+      <c r="W935" t="n">
+        <v>4.073740980292911</v>
+      </c>
+      <c r="X935" t="n">
+        <v>-2.376523284589354</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X935"/>
+  <dimension ref="A1:X939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86230,22 +86230,22 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>246.11000000</t>
+          <t>251.93000000</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>241.10000000</t>
+          <t>236.00000000</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>243.13000000</t>
+          <t>237.23000000</t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>148782.05937000</t>
+          <t>633748.89662000</t>
         </is>
       </c>
       <c r="G935" t="n">
@@ -86253,20 +86253,20 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>36223280.60725200</t>
+          <t>154037325.61130680</t>
         </is>
       </c>
       <c r="I935" t="n">
-        <v>56610</v>
+        <v>238113</v>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>71284.45888000</t>
+          <t>311459.94084000</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>17360456.75011150</t>
+          <t>75736818.09643840</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
@@ -86275,40 +86275,408 @@
         </is>
       </c>
       <c r="M935" t="n">
-        <v>243.1299999999991</v>
+        <v>237.2299999999991</v>
       </c>
       <c r="N935" t="n">
-        <v>244.0050000000001</v>
+        <v>241.0550000000001</v>
       </c>
       <c r="O935" t="n">
-        <v>230.6199999999988</v>
+        <v>229.7771428571417</v>
       </c>
       <c r="P935" t="n">
-        <v>237.2180000000004</v>
+        <v>236.824666666667</v>
       </c>
       <c r="Q935" t="n">
-        <v>245.5600000000003</v>
+        <v>245.3633333333336</v>
       </c>
       <c r="R935" t="n">
-        <v>243.13</v>
+        <v>237.23</v>
       </c>
       <c r="S935" t="n">
-        <v>241.7381663408503</v>
+        <v>237.804833007517</v>
       </c>
       <c r="T935" t="n">
-        <v>235.6936927202332</v>
+        <v>234.7860004125409</v>
       </c>
       <c r="U935" t="n">
-        <v>233.9964750245296</v>
+        <v>233.5594379874926</v>
       </c>
       <c r="V935" t="n">
-        <v>1.697217695703557</v>
+        <v>1.226562425048314</v>
       </c>
       <c r="W935" t="n">
-        <v>4.073740980292911</v>
+        <v>3.979609926161862</v>
       </c>
       <c r="X935" t="n">
-        <v>-2.376523284589354</v>
+        <v>-2.753047501113548</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>237.23000000</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>237.23000000</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>195.50000000</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>199.43000000</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>1278973.53741000</t>
+        </is>
+      </c>
+      <c r="G936" t="n">
+        <v>1583711999999</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>277970187.86826010</t>
+        </is>
+      </c>
+      <c r="I936" t="n">
+        <v>412787</v>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>591086.61596000</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>128602756.90604900</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>2020-03-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M936" t="n">
+        <v>199.4299999999991</v>
+      </c>
+      <c r="N936" t="n">
+        <v>218.3300000000001</v>
+      </c>
+      <c r="O936" t="n">
+        <v>227.1514285714275</v>
+      </c>
+      <c r="P936" t="n">
+        <v>232.6820000000004</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>244.5666666666669</v>
+      </c>
+      <c r="R936" t="n">
+        <v>199.43</v>
+      </c>
+      <c r="S936" t="n">
+        <v>212.2216110025057</v>
+      </c>
+      <c r="T936" t="n">
+        <v>229.3466157336885</v>
+      </c>
+      <c r="U936" t="n">
+        <v>231.0313314699005</v>
+      </c>
+      <c r="V936" t="n">
+        <v>-1.68471573621207</v>
+      </c>
+      <c r="W936" t="n">
+        <v>2.846744793687076</v>
+      </c>
+      <c r="X936" t="n">
+        <v>-4.531460529899146</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>199.43000000</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>208.62000000</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>190.00000000</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>202.81000000</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>1661331.83553000</t>
+        </is>
+      </c>
+      <c r="G937" t="n">
+        <v>1583798399999</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>332570408.53515290</t>
+        </is>
+      </c>
+      <c r="I937" t="n">
+        <v>473504</v>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>822023.18618000</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>164639631.82315350</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>2020-03-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M937" t="n">
+        <v>202.8099999999991</v>
+      </c>
+      <c r="N937" t="n">
+        <v>201.1200000000001</v>
+      </c>
+      <c r="O937" t="n">
+        <v>222.9857142857132</v>
+      </c>
+      <c r="P937" t="n">
+        <v>227.9040000000004</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>243.8920000000003</v>
+      </c>
+      <c r="R937" t="n">
+        <v>202.81</v>
+      </c>
+      <c r="S937" t="n">
+        <v>205.9472036675019</v>
+      </c>
+      <c r="T937" t="n">
+        <v>225.2640594669672</v>
+      </c>
+      <c r="U937" t="n">
+        <v>228.9408624721301</v>
+      </c>
+      <c r="V937" t="n">
+        <v>-3.676803005162952</v>
+      </c>
+      <c r="W937" t="n">
+        <v>1.54203523391707</v>
+      </c>
+      <c r="X937" t="n">
+        <v>-5.218838239080022</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>202.79000000</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>206.20000000</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>195.54000000</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>200.70000000</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>1020260.10700000</t>
+        </is>
+      </c>
+      <c r="G938" t="n">
+        <v>1583884799999</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>205536190.19393920</t>
+        </is>
+      </c>
+      <c r="I938" t="n">
+        <v>332398</v>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>501745.90774000</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>101099251.53024810</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>2020-03-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M938" t="n">
+        <v>200.6999999999991</v>
+      </c>
+      <c r="N938" t="n">
+        <v>201.7550000000001</v>
+      </c>
+      <c r="O938" t="n">
+        <v>219.6699999999989</v>
+      </c>
+      <c r="P938" t="n">
+        <v>223.582666666667</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>242.9656666666669</v>
+      </c>
+      <c r="R938" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="S938" t="n">
+        <v>202.4490678891673</v>
+      </c>
+      <c r="T938" t="n">
+        <v>221.484973395126</v>
+      </c>
+      <c r="U938" t="n">
+        <v>226.8489467334538</v>
+      </c>
+      <c r="V938" t="n">
+        <v>-5.363973338327753</v>
+      </c>
+      <c r="W938" t="n">
+        <v>0.1608335194681051</v>
+      </c>
+      <c r="X938" t="n">
+        <v>-5.524806857795858</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>200.74000000</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>203.18000000</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>181.73000000</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>194.65000000</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>1078083.59003000</t>
+        </is>
+      </c>
+      <c r="G939" t="n">
+        <v>1583971199999</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>207893569.66248550</t>
+        </is>
+      </c>
+      <c r="I939" t="n">
+        <v>343639</v>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>538420.66399000</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>103864775.75267270</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>2020-03-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M939" t="n">
+        <v>194.6499999999991</v>
+      </c>
+      <c r="N939" t="n">
+        <v>197.6750000000002</v>
+      </c>
+      <c r="O939" t="n">
+        <v>215.4399999999989</v>
+      </c>
+      <c r="P939" t="n">
+        <v>220.114666666667</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>242.0243333333336</v>
+      </c>
+      <c r="R939" t="n">
+        <v>194.65</v>
+      </c>
+      <c r="S939" t="n">
+        <v>197.2496892963891</v>
+      </c>
+      <c r="T939" t="n">
+        <v>217.356515949722</v>
+      </c>
+      <c r="U939" t="n">
+        <v>224.4638395680128</v>
+      </c>
+      <c r="V939" t="n">
+        <v>-7.107323618290735</v>
+      </c>
+      <c r="W939" t="n">
+        <v>-1.292797908083664</v>
+      </c>
+      <c r="X939" t="n">
+        <v>-5.814525710207072</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X939"/>
+  <dimension ref="A1:X940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86608,12 +86608,12 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>194.65000000</t>
+          <t>194.61000000</t>
         </is>
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>1078083.59003000</t>
+          <t>1079824.90167000</t>
         </is>
       </c>
       <c r="G939" t="n">
@@ -86621,20 +86621,20 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>207893569.66248550</t>
+          <t>208232375.18620150</t>
         </is>
       </c>
       <c r="I939" t="n">
-        <v>343639</v>
+        <v>344156</v>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>538420.66399000</t>
+          <t>539239.29222000</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>103864775.75267270</t>
+          <t>104024026.91909340</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
@@ -86643,40 +86643,132 @@
         </is>
       </c>
       <c r="M939" t="n">
-        <v>194.6499999999991</v>
+        <v>194.6099999999991</v>
       </c>
       <c r="N939" t="n">
-        <v>197.6750000000002</v>
+        <v>197.6550000000002</v>
       </c>
       <c r="O939" t="n">
-        <v>215.4399999999989</v>
+        <v>215.4342857142846</v>
       </c>
       <c r="P939" t="n">
-        <v>220.114666666667</v>
+        <v>220.1120000000004</v>
       </c>
       <c r="Q939" t="n">
-        <v>242.0243333333336</v>
+        <v>242.0230000000002</v>
       </c>
       <c r="R939" t="n">
-        <v>194.65</v>
+        <v>194.61</v>
       </c>
       <c r="S939" t="n">
-        <v>197.2496892963891</v>
+        <v>197.2230226297224</v>
       </c>
       <c r="T939" t="n">
-        <v>217.356515949722</v>
+        <v>217.3503621035682</v>
       </c>
       <c r="U939" t="n">
-        <v>224.4638395680128</v>
+        <v>224.4608766050498</v>
       </c>
       <c r="V939" t="n">
-        <v>-7.107323618290735</v>
+        <v>-7.110514501481646</v>
       </c>
       <c r="W939" t="n">
-        <v>-1.292797908083664</v>
+        <v>-1.293436084721846</v>
       </c>
       <c r="X939" t="n">
-        <v>-5.814525710207072</v>
+        <v>-5.8170784167598</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>194.61000000</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>195.35000000</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>194.59000000</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>195.24000000</t>
+        </is>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>5122.98523000</t>
+        </is>
+      </c>
+      <c r="G940" t="n">
+        <v>1584057599999</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>999459.47850310</t>
+        </is>
+      </c>
+      <c r="I940" t="n">
+        <v>1226</v>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>2383.01743000</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>464786.72242250</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>2020-03-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M940" t="n">
+        <v>195.2399999999991</v>
+      </c>
+      <c r="N940" t="n">
+        <v>194.9250000000002</v>
+      </c>
+      <c r="O940" t="n">
+        <v>210.6999999999989</v>
+      </c>
+      <c r="P940" t="n">
+        <v>218.1993333333337</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>240.6413333333336</v>
+      </c>
+      <c r="R940" t="n">
+        <v>195.24</v>
+      </c>
+      <c r="S940" t="n">
+        <v>195.9010075432408</v>
+      </c>
+      <c r="T940" t="n">
+        <v>213.9487679337884</v>
+      </c>
+      <c r="U940" t="n">
+        <v>222.296367226898</v>
+      </c>
+      <c r="V940" t="n">
+        <v>-8.347599293109511</v>
+      </c>
+      <c r="W940" t="n">
+        <v>-2.704268726399379</v>
+      </c>
+      <c r="X940" t="n">
+        <v>-5.643330566710132</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -86690,22 +86690,22 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>195.35000000</t>
+          <t>195.55000000</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>194.59000000</t>
+          <t>123.00000000</t>
         </is>
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>195.24000000</t>
+          <t>140.25000000</t>
         </is>
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>5122.98523000</t>
+          <t>2360255.43959000</t>
         </is>
       </c>
       <c r="G940" t="n">
@@ -86713,20 +86713,20 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>999459.47850310</t>
+          <t>361226535.60061320</t>
         </is>
       </c>
       <c r="I940" t="n">
-        <v>1226</v>
+        <v>565370</v>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>2383.01743000</t>
+          <t>1120307.78494000</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
         <is>
-          <t>464786.72242250</t>
+          <t>171376434.58774650</t>
         </is>
       </c>
       <c r="L940" t="inlineStr">
@@ -86735,40 +86735,40 @@
         </is>
       </c>
       <c r="M940" t="n">
-        <v>195.2399999999991</v>
+        <v>140.2499999999991</v>
       </c>
       <c r="N940" t="n">
-        <v>194.9250000000002</v>
+        <v>167.4300000000002</v>
       </c>
       <c r="O940" t="n">
-        <v>210.6999999999989</v>
+        <v>202.8442857142846</v>
       </c>
       <c r="P940" t="n">
-        <v>218.1993333333337</v>
+        <v>214.5333333333337</v>
       </c>
       <c r="Q940" t="n">
-        <v>240.6413333333336</v>
+        <v>238.8083333333336</v>
       </c>
       <c r="R940" t="n">
-        <v>195.24</v>
+        <v>140.25</v>
       </c>
       <c r="S940" t="n">
-        <v>195.9010075432408</v>
+        <v>159.2410075432408</v>
       </c>
       <c r="T940" t="n">
-        <v>213.9487679337884</v>
+        <v>205.4887679337884</v>
       </c>
       <c r="U940" t="n">
-        <v>222.296367226898</v>
+        <v>218.2230338935646</v>
       </c>
       <c r="V940" t="n">
-        <v>-8.347599293109511</v>
+        <v>-12.73426595977617</v>
       </c>
       <c r="W940" t="n">
-        <v>-2.704268726399379</v>
+        <v>-3.581602059732711</v>
       </c>
       <c r="X940" t="n">
-        <v>-5.643330566710132</v>
+        <v>-9.152663900043455</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4263,17 +4263,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>125.18000000</t>
+          <t>120.00000000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>128.05000000</t>
+          <t>122.54000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>934109.27023000</t>
+          <t>1237674.88642000</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4281,20 +4281,20 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>121064923.49606690</t>
+          <t>159192895.55261970</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>301396</v>
+        <v>398146</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>477998.58445000</t>
+          <t>628481.86635000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>61956083.79341620</t>
+          <t>80877487.98928390</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4303,40 +4303,224 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>128.0499999999998</v>
+        <v>122.5399999999998</v>
       </c>
       <c r="N44" t="n">
-        <v>131.0550000000001</v>
+        <v>128.3000000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>166.7828571428571</v>
+        <v>165.9957142857143</v>
       </c>
       <c r="P44" t="n">
-        <v>199.542</v>
+        <v>199.1746666666667</v>
       </c>
       <c r="Q44" t="n">
-        <v>228.6623333333334</v>
+        <v>228.4786666666668</v>
       </c>
       <c r="R44" t="n">
-        <v>128.05</v>
+        <v>122.54</v>
       </c>
       <c r="S44" t="n">
-        <v>130.4490008381379</v>
+        <v>126.7756675048045</v>
       </c>
       <c r="T44" t="n">
-        <v>180.7116821032397</v>
+        <v>179.8633457903535</v>
       </c>
       <c r="U44" t="n">
-        <v>205.2637722529085</v>
+        <v>204.8401443871479</v>
       </c>
       <c r="V44" t="n">
-        <v>-24.55209014966886</v>
+        <v>-24.97679859679442</v>
       </c>
       <c r="W44" t="n">
-        <v>-13.67199895507777</v>
+        <v>-13.75694642572816</v>
       </c>
       <c r="X44" t="n">
-        <v>-10.88009119459108</v>
+        <v>-11.21985217106626</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>122.54000000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>133.50000000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>120.16000000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>123.78000000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1312950.90137000</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1584316799999</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>163436235.26909020</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>346579</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>669525.68240000</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>83359166.35016240</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2020-03-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>123.7799999999998</v>
+      </c>
+      <c r="N45" t="n">
+        <v>123.1600000000001</v>
+      </c>
+      <c r="O45" t="n">
+        <v>155.1885714285714</v>
+      </c>
+      <c r="P45" t="n">
+        <v>192.946</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>223.0996666666668</v>
+      </c>
+      <c r="R45" t="n">
+        <v>123.78</v>
+      </c>
+      <c r="S45" t="n">
+        <v>124.7785558349348</v>
+      </c>
+      <c r="T45" t="n">
+        <v>171.229592868324</v>
+      </c>
+      <c r="U45" t="n">
+        <v>198.6254195632536</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-27.39582669492958</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-16.48487100190949</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-10.91095569302009</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>123.82000000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>124.33000000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>101.10000000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>111.18000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1778230.76646000</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1584403199999</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>196383322.33181800</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>466021</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>864592.43860000</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>95415716.67891000</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2020-03-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>111.1799999999998</v>
+      </c>
+      <c r="N46" t="n">
+        <v>117.48</v>
+      </c>
+      <c r="O46" t="n">
+        <v>142.0985714285714</v>
+      </c>
+      <c r="P46" t="n">
+        <v>185.8373333333333</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>217.9763333333334</v>
+      </c>
+      <c r="R46" t="n">
+        <v>111.18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>115.7128519449783</v>
+      </c>
+      <c r="T46" t="n">
+        <v>161.9861699288043</v>
+      </c>
+      <c r="U46" t="n">
+        <v>191.9384938731846</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-29.95232394438028</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-19.17847891357495</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-10.77384503080534</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>111.18000000</t>
+          <t>111.02000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1778230.76646000</t>
+          <t>2442064.14448000</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4465,20 +4465,20 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>196383322.33181800</t>
+          <t>270353891.80500360</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>466021</v>
+        <v>663277</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>864592.43860000</t>
+          <t>1191735.45431000</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>95415716.67891000</t>
+          <t>131882551.29453890</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4487,40 +4487,592 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>111.1799999999998</v>
+        <v>111.0199999999998</v>
       </c>
       <c r="N46" t="n">
-        <v>117.48</v>
+        <v>117.4</v>
       </c>
       <c r="O46" t="n">
-        <v>142.0985714285714</v>
+        <v>142.0757142857142</v>
       </c>
       <c r="P46" t="n">
-        <v>185.8373333333333</v>
+        <v>185.8266666666667</v>
       </c>
       <c r="Q46" t="n">
-        <v>217.9763333333334</v>
+        <v>217.9710000000001</v>
       </c>
       <c r="R46" t="n">
-        <v>111.18</v>
+        <v>111.02</v>
       </c>
       <c r="S46" t="n">
-        <v>115.7128519449783</v>
+        <v>115.6061852783116</v>
       </c>
       <c r="T46" t="n">
-        <v>161.9861699288043</v>
+        <v>161.9615411578223</v>
       </c>
       <c r="U46" t="n">
-        <v>191.9384938731846</v>
+        <v>191.9262587199227</v>
       </c>
       <c r="V46" t="n">
-        <v>-29.95232394438028</v>
+        <v>-29.96471756210045</v>
       </c>
       <c r="W46" t="n">
-        <v>-19.17847891357495</v>
+        <v>-19.18095774508732</v>
       </c>
       <c r="X46" t="n">
-        <v>-10.77384503080534</v>
+        <v>-10.78375981701313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>111.02000000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>120.80000000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>109.38000000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>115.67000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1295108.48480000</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1584489599999</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>150800664.07195460</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>378258</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>654284.35784000</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>76179202.04303240</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2020-03-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>115.6699999999998</v>
+      </c>
+      <c r="N47" t="n">
+        <v>113.345</v>
+      </c>
+      <c r="O47" t="n">
+        <v>129.9285714285714</v>
+      </c>
+      <c r="P47" t="n">
+        <v>178.0733333333334</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>213.1983333333334</v>
+      </c>
+      <c r="R47" t="n">
+        <v>115.67</v>
+      </c>
+      <c r="S47" t="n">
+        <v>115.6487284261039</v>
+      </c>
+      <c r="T47" t="n">
+        <v>154.8364887389443</v>
+      </c>
+      <c r="U47" t="n">
+        <v>186.1089011495435</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-31.27241241059917</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-21.5993329462665</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-9.673079464332677</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>115.67000000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>118.50000000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>109.86000000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>118.11000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1201850.31275000</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1584575999999</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>137550912.08551710</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>346312</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>604214.46019000</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>69185743.99493410</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2020-03-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>118.1099999999998</v>
+      </c>
+      <c r="N48" t="n">
+        <v>116.89</v>
+      </c>
+      <c r="O48" t="n">
+        <v>119</v>
+      </c>
+      <c r="P48" t="n">
+        <v>171.02</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>208.2070000000001</v>
+      </c>
+      <c r="R48" t="n">
+        <v>118.11</v>
+      </c>
+      <c r="S48" t="n">
+        <v>117.2895761420346</v>
+      </c>
+      <c r="T48" t="n">
+        <v>149.1840600514093</v>
+      </c>
+      <c r="U48" t="n">
+        <v>180.9329260247065</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-31.74886597329714</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-23.62929613878752</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-8.119569834509619</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>118.11000000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>143.13000000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>115.46000000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>136.30000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1801071.18816000</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1584662399999</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>231626928.16070490</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>489147</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>904222.90527000</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>116437845.40569180</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2020-03-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>136.2999999999998</v>
+      </c>
+      <c r="N49" t="n">
+        <v>127.205</v>
+      </c>
+      <c r="O49" t="n">
+        <v>123.0685714285714</v>
+      </c>
+      <c r="P49" t="n">
+        <v>165.1560000000001</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>203.3300000000001</v>
+      </c>
+      <c r="R49" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>129.9631920473449</v>
+      </c>
+      <c r="T49" t="n">
+        <v>147.2012440609833</v>
+      </c>
+      <c r="U49" t="n">
+        <v>177.5424657244196</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-30.34122166343627</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-24.97171118057307</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-5.369510482863202</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>136.30000000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>152.55000000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>116.74000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>133.48000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2504057.63799000</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1584748799999</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>345856006.74779890</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>707216</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1240999.35166000</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>171579646.80308030</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2020-03-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>133.4799999999997</v>
+      </c>
+      <c r="N50" t="n">
+        <v>134.89</v>
+      </c>
+      <c r="O50" t="n">
+        <v>122.9857142857143</v>
+      </c>
+      <c r="P50" t="n">
+        <v>158.8293333333334</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>199.1643333333334</v>
+      </c>
+      <c r="R50" t="n">
+        <v>133.48</v>
+      </c>
+      <c r="S50" t="n">
+        <v>132.3077306824483</v>
+      </c>
+      <c r="T50" t="n">
+        <v>145.0896951096449</v>
+      </c>
+      <c r="U50" t="n">
+        <v>174.2016506706345</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-29.1119555609896</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-25.79977482980554</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-3.312180731184057</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>133.49000000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>137.49000000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>125.69000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>132.66000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1231842.11121000</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1584835199999</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>162468451.77231490</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>401288</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>607735.22807000</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>80144362.79303360</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>132.6599999999998</v>
+      </c>
+      <c r="N51" t="n">
+        <v>133.07</v>
+      </c>
+      <c r="O51" t="n">
+        <v>124.4314285714286</v>
+      </c>
+      <c r="P51" t="n">
+        <v>151.348</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>195.0210000000001</v>
+      </c>
+      <c r="R51" t="n">
+        <v>132.66</v>
+      </c>
+      <c r="S51" t="n">
+        <v>132.5425768941494</v>
+      </c>
+      <c r="T51" t="n">
+        <v>143.1769833862434</v>
+      </c>
+      <c r="U51" t="n">
+        <v>171.0574532089965</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-27.88046982275307</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-26.21591976781407</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-1.664550054938996</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>132.63000000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>136.71000000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>130.49000000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>135.85000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>178458.31654000</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1584921599999</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>23950576.42690840</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>57697</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>91384.06714000</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>12260595.22540800</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>135.8499999999998</v>
+      </c>
+      <c r="N52" t="n">
+        <v>134.255</v>
+      </c>
+      <c r="O52" t="n">
+        <v>126.1557142857143</v>
+      </c>
+      <c r="P52" t="n">
+        <v>144.5893333333334</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>190.7070000000001</v>
+      </c>
+      <c r="R52" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="S52" t="n">
+        <v>134.7475256313831</v>
+      </c>
+      <c r="T52" t="n">
+        <v>142.0495302600207</v>
+      </c>
+      <c r="U52" t="n">
+        <v>168.3969707919591</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-26.34744053193842</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-26.24222422098271</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.1052163109557114</v>
       </c>
     </row>
   </sheetData>
